--- a/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudortmundde.sharepoint.com/sites/TA1-NFDI4CatTUDO/Shared Documents/Ontology Worldmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_ECD599EE658AD3D94FF375D471F48AEEE41430E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBE2AA9-DA22-4B67-BD14-01417EC11824}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15944B6-4D44-4D29-B49F-EF1E71D78148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="9030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -806,9 +806,6 @@
     <t>https://github.com/BFO-ontology/BFO</t>
   </si>
   <si>
-    <t>Ontology Dataformats provided (ttl, owl, obo, rdf/xml, n3)</t>
-  </si>
-  <si>
     <t>owl, obo</t>
   </si>
   <si>
@@ -1296,12 +1293,15 @@
   <si>
     <t>Ontology with is developed to combine several marketplaces, such as Material handling/transport/aso as well as simulations/compotations/aso. As it is not well defined/annotated and lacks a good documentation for how to add data, it is quiet complicated to make use of it outside of the propriatarilly developed tools. Reasonning erorrs and the termination of further development/alignment to the EMMO make it nearly unuseable accept as a organ donor. As such the Ontology has a lot of good concepts and is well developed.</t>
   </si>
+  <si>
+    <t>Optional links (Papers, Additional GitHub Repo,...)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1649,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1755,7 +1755,6 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2092,503 +2091,503 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -2611,456 +2610,456 @@
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5">
+    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>49216</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>12270</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>6846</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5">
+    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -3080,454 +3079,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1">
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1">
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1">
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>4811</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>3067</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="90">
+    <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3539,469 +3538,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:A93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75">
+    <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>1786</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>1110</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4021,467 +4020,467 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>3609</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>730</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4494,470 +4493,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="64" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="21">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1">
+    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>2982</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>745</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>695</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>694</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -4974,469 +4973,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="150">
+    <row r="9" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>10812</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>7252</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1712</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>1082</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>897</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60">
+    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -5458,11 +5457,11 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:B21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -5476,11 +5475,11 @@
     <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="69.75" customHeight="1">
+    <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -5508,11 +5507,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1">
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -5540,11 +5539,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" customHeight="1">
+    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -5572,11 +5571,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69.75" customHeight="1">
+    <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -5604,11 +5603,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1">
+    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -5636,11 +5635,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -5668,11 +5667,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1">
+    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -5700,11 +5699,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="69.75" customHeight="1">
+    <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -5732,11 +5731,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" customHeight="1">
+    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -5764,11 +5763,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69.75" customHeight="1">
+    <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -5796,11 +5795,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" customHeight="1">
+    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -5826,11 +5825,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" customHeight="1">
+    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -5856,7 +5855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="69.75" customHeight="1">
+    <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>161</v>
       </c>
@@ -5886,11 +5885,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>121</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -5916,11 +5915,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -5944,11 +5943,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -5972,7 +5971,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" customHeight="1">
+    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>186</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="69.75" customHeight="1">
+    <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>191</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" customHeight="1">
+    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>196</v>
       </c>
@@ -6056,11 +6055,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" customHeight="1">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -6088,7 +6087,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="69.75" customHeight="1">
+    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>204</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="69.75" customHeight="1">
+    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>209</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="69.75" customHeight="1">
+    <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>215</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" customHeight="1">
+    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>221</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1">
+    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>227</v>
       </c>
@@ -6249,7 +6248,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1">
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>229</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1">
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>231</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1">
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>233</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="69.75" customHeight="1">
+    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="69.75" customHeight="1">
+    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="69.75" customHeight="1">
+    <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="69.75" customHeight="1">
+    <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="69.75" customHeight="1">
+    <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -6372,517 +6371,517 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>7382</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>2527</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1055</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>935</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -6904,461 +6903,461 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" ht="21">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="75">
+    <row r="93" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="42" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="42" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7374,454 +7373,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A60"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1">
+    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.75" customHeight="1">
+    <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="27.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.75" customHeight="1">
+    <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.75" customHeight="1">
+    <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.75" customHeight="1">
+    <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.75" customHeight="1">
+    <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27.75" customHeight="1">
+    <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="27.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27.75" customHeight="1">
+    <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="27.75" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27.75" customHeight="1">
+    <row r="14" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27.75" customHeight="1">
+    <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="27.75" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27.75" customHeight="1">
+    <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27.75" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27.75" customHeight="1">
+    <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27.75" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27.75" customHeight="1">
+    <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27.75" customHeight="1">
+    <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27.75" customHeight="1">
+    <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27.75" customHeight="1">
+    <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27.75" customHeight="1">
+    <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27.75" customHeight="1">
+    <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27.75" customHeight="1">
+    <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="27.75" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27.75" customHeight="1">
+    <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="27.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27.75" customHeight="1">
+    <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="27.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27.75" customHeight="1">
+    <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="27.75" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27.75" customHeight="1">
+    <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="27.75" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27.75" customHeight="1">
+    <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="27.75" customHeight="1">
+    <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1">
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="27.75" customHeight="1">
+    <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27.75" customHeight="1">
+    <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27.75" customHeight="1">
+    <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27.75" customHeight="1">
+    <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1">
+    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="27.75" customHeight="1">
+    <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="27.75" customHeight="1">
+    <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="27.75" customHeight="1">
+    <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="27.75" customHeight="1">
+    <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="27.75" customHeight="1">
+    <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="27.75" customHeight="1">
+    <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="27.75" customHeight="1">
+    <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="27.75" customHeight="1">
+    <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="27.75" customHeight="1">
+    <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="27.75" customHeight="1">
+    <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.75" customHeight="1">
+    <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="27.75" customHeight="1">
+    <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="27.75" customHeight="1">
+    <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="27.75" customHeight="1">
+    <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="27.75" customHeight="1">
+    <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="27.75" customHeight="1">
+    <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="27.75" customHeight="1">
+    <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="27.75" customHeight="1">
+    <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="27.75" customHeight="1">
+    <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="27.75" customHeight="1">
+    <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="27.75" customHeight="1">
+    <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="27.75" customHeight="1">
+    <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="27.75" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="27.75" customHeight="1">
+    <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="27.75" customHeight="1">
+    <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="27.75" customHeight="1">
+    <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>24686</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="27.75" customHeight="1">
+    <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27.75" customHeight="1">
+    <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>5299</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="27.75" customHeight="1">
+    <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="27.75" customHeight="1">
+    <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>3347</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="27.75" customHeight="1">
+    <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="27.75" customHeight="1">
+    <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>2876</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" customHeight="1">
+    <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="27.75" customHeight="1">
+    <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="27.75" customHeight="1">
+    <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="27.75" customHeight="1">
+    <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="27.75" customHeight="1">
+    <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="27.75" customHeight="1">
+    <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="27.75" customHeight="1">
+    <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="27.75" customHeight="1">
+    <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="27.75" customHeight="1">
+    <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="165">
+    <row r="93" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7840,469 +7839,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="180">
+    <row r="9" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
-      <c r="A22" s="49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="22" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
-      <c r="A45" s="53" t="s">
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
-      <c r="A46" s="54" t="s">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
-      <c r="A48" s="55" t="s">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
-      <c r="A50" s="55" t="s">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
-      <c r="A54" s="55" t="s">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
-      <c r="A56" s="55" t="s">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
-      <c r="A58" s="55" t="s">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
-      <c r="A60" s="55" t="s">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
-      <c r="A62" s="55" t="s">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
-      <c r="A64" s="55" t="s">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
-      <c r="A66" s="55" t="s">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A66" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
-      <c r="A68" s="55" t="s">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
-      <c r="A70" s="55" t="s">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
-      <c r="A74" s="56" t="s">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
-      <c r="A75" s="57" t="s">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A75" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <v>2646</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
-      <c r="A77" s="57" t="s">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
-      <c r="A79" s="57" t="s">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A79" s="56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
-      <c r="A81" s="57" t="s">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A81" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
-      <c r="A83" s="57" t="s">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A83" s="56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
-      <c r="A85" s="57" t="s">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
-      <c r="A87" s="57" t="s">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
-      <c r="A89" s="57" t="s">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A89" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
-      <c r="A92" s="58" t="s">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
     </row>
   </sheetData>
@@ -8318,469 +8319,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="58.5" customHeight="1">
+    <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>7555</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>1591</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>850</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="45">
+    <row r="93" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -8800,449 +8801,449 @@
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5">
+    <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>27840</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>3479</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>3162</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>3101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5">
+    <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -9260,457 +9261,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="21">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="61" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="21">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="45">
-      <c r="A23" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.25" thickBot="1">
+    <row r="75" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>2928713</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>317346</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>176920</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>176873</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.25" thickBot="1">
+    <row r="93" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
   </sheetData>
@@ -9732,12 +9733,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9869,14 +9864,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15944B6-4D44-4D29-B49F-EF1E71D78148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -32,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="396">
   <si>
     <t>Ontology</t>
   </si>
@@ -112,16 +111,10 @@
     <t>Link to Version directory</t>
   </si>
   <si>
-    <t>Optional links (Papers, Additional GitHub Repo,…)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GitHub.com: https://github.com/emmo-repo/EMMO; EMMOpy: https://github.com/emmo-repo/EMMOntoPy; </t>
   </si>
   <si>
     <t>Ontology Modeling And Availability</t>
-  </si>
-  <si>
-    <t>Ontology Dataformats provided</t>
   </si>
   <si>
     <t>rdf/xml; ttl</t>
@@ -1300,7 +1293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1799,8 +1792,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2084,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -2199,242 +2192,242 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -2444,7 +2437,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -2454,7 +2447,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -2464,17 +2457,17 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -2482,7 +2475,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -2490,7 +2483,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -2498,7 +2491,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -2506,7 +2499,7 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -2514,91 +2507,91 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A126" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A126" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -2606,14 +2599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -2641,7 +2634,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2651,7 +2644,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2661,7 +2654,7 @@
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2671,7 +2664,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2686,7 +2679,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2696,7 +2689,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2706,7 +2699,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2716,262 +2709,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -2981,7 +2974,7 @@
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -2991,7 +2984,7 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -3001,17 +2994,17 @@
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -3021,7 +3014,7 @@
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -3031,7 +3024,7 @@
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -3041,7 +3034,7 @@
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -3051,12 +3044,12 @@
     </row>
     <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -3064,11 +3057,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -3076,14 +3069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -3101,7 +3094,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3111,7 +3104,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,7 +3114,7 @@
     </row>
     <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3124,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,7 +3134,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3156,7 +3149,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,7 +3159,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,7 +3169,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,262 +3179,262 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3444,7 @@
     </row>
     <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3461,7 +3454,7 @@
     </row>
     <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3471,7 +3464,7 @@
     </row>
     <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,7 +3474,7 @@
     </row>
     <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,7 +3484,7 @@
     </row>
     <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3494,7 @@
     </row>
     <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3511,7 +3504,7 @@
     </row>
     <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3521,12 +3514,12 @@
     </row>
     <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3535,14 +3528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3560,7 +3553,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3570,7 +3563,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3580,7 +3573,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3590,7 +3583,7 @@
     </row>
     <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3600,7 +3593,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3615,7 +3608,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3625,7 +3618,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3635,7 +3628,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3645,262 +3638,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -3910,7 +3903,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -3920,7 +3913,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -3930,7 +3923,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -3940,7 +3933,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -3950,7 +3943,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -3960,7 +3953,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -3970,7 +3963,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -3980,12 +3973,12 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4005,11 +3998,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -4017,14 +4010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4042,7 +4035,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4052,7 +4045,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4062,7 +4055,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4072,7 +4065,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4082,7 +4075,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4105,7 +4098,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4115,7 +4108,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4125,262 +4118,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -4390,7 +4383,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4400,7 +4393,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -4410,7 +4403,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -4420,7 +4413,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -4430,7 +4423,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -4440,7 +4433,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4450,7 +4443,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -4460,12 +4453,12 @@
     </row>
     <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4490,14 +4483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4515,7 +4508,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4525,7 +4518,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4535,7 +4528,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4545,7 +4538,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4555,7 +4548,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4570,7 +4563,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4580,7 +4573,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4590,7 +4583,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="14"/>
     </row>
@@ -4601,262 +4594,262 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -4866,7 +4859,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4876,7 +4869,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -4886,7 +4879,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -4896,7 +4889,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -4906,7 +4899,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -4916,7 +4909,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4926,7 +4919,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -4936,12 +4929,12 @@
     </row>
     <row r="92" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4961,8 +4954,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -4970,14 +4963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4995,7 +4988,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5005,7 +4998,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5015,7 +5008,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5025,7 +5018,7 @@
     </row>
     <row r="9" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5035,7 +5028,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -5050,7 +5043,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5060,7 +5053,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5070,7 +5063,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5080,262 +5073,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -5345,7 +5338,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -5355,7 +5348,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -5365,7 +5358,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -5375,7 +5368,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -5385,7 +5378,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -5395,7 +5388,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -5405,7 +5398,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -5415,12 +5408,12 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -5440,12 +5433,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="A19" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -5453,7 +5446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5461,7 +5454,7 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -5477,194 +5470,194 @@
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="D1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="H3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="H4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="D6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,537 +5665,537 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="G8" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="H8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="J8" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="I10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="J11" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="J12" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="I14" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="J14" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="J17" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="J18" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="J19" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H20" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>201</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="J23" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G24" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -6250,51 +6243,51 @@
     </row>
     <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31">
         <f>COUNTA(A2:A29)</f>
@@ -6303,7 +6296,7 @@
     </row>
     <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32">
         <f>COUNTA(B2:B29)</f>
@@ -6312,7 +6305,7 @@
     </row>
     <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33">
         <f>COUNTIF(B2:B29,"x")</f>
@@ -6321,7 +6314,7 @@
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34">
         <f>B32/B31*100</f>
@@ -6330,52 +6323,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G13" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="G21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo"/>
+    <hyperlink ref="G10" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+    <hyperlink ref="G11" r:id="rId16"/>
+    <hyperlink ref="H11" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="G13" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G15" r:id="rId22"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY"/>
+    <hyperlink ref="H17" r:id="rId25"/>
+    <hyperlink ref="H18" r:id="rId26"/>
+    <hyperlink ref="H19" r:id="rId27"/>
+    <hyperlink ref="G20" r:id="rId28"/>
+    <hyperlink ref="H20" r:id="rId29"/>
+    <hyperlink ref="G21" r:id="rId30"/>
+    <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="G18" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6484,243 +6477,243 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -6730,7 +6723,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -6740,7 +6733,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -6750,7 +6743,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -6760,7 +6753,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -6770,7 +6763,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -6780,7 +6773,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -6790,7 +6783,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -6800,7 +6793,7 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -6808,91 +6801,91 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A123" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A123" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
@@ -6900,14 +6893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
@@ -6924,7 +6917,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6934,7 +6927,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6944,7 +6937,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6954,7 +6947,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6964,7 +6957,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -6979,7 +6972,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6989,7 +6982,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6999,7 +6992,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -7012,257 +7005,257 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -7272,7 +7265,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -7282,7 +7275,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -7292,7 +7285,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -7302,7 +7295,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -7312,7 +7305,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -7322,7 +7315,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -7332,7 +7325,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -7342,42 +7335,42 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A93" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A93"/>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -7395,7 +7388,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7405,7 +7398,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7415,7 +7408,7 @@
     </row>
     <row r="7" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7425,7 +7418,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7435,7 +7428,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7450,7 +7443,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7460,7 +7453,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,7 +7463,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,262 +7473,262 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7745,7 +7738,7 @@
     </row>
     <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7755,7 +7748,7 @@
     </row>
     <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7765,7 +7758,7 @@
     </row>
     <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7775,7 +7768,7 @@
     </row>
     <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7785,7 +7778,7 @@
     </row>
     <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7788,7 @@
     </row>
     <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7805,7 +7798,7 @@
     </row>
     <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7815,35 +7808,35 @@
     </row>
     <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A21" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A23" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A39" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A23" r:id="rId4"/>
+    <hyperlink ref="A39" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
@@ -7860,7 +7853,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7870,7 +7863,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7880,7 +7873,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7890,7 +7883,7 @@
     </row>
     <row r="9" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7900,7 +7893,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -7918,7 +7911,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7928,7 +7921,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7938,7 +7931,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.35">
@@ -7948,17 +7941,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -7966,97 +7959,97 @@
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -8064,142 +8057,142 @@
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -8207,12 +8200,12 @@
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -8222,7 +8215,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -8232,7 +8225,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -8242,7 +8235,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -8252,7 +8245,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -8262,7 +8255,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -8272,7 +8265,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -8282,7 +8275,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -8295,12 +8288,12 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -8308,22 +8301,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A23" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -8341,7 +8334,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8351,7 +8344,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8361,7 +8354,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8371,7 +8364,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8396,7 +8389,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8406,7 +8399,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8416,7 +8409,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8426,262 +8419,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -8691,7 +8684,7 @@
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -8701,7 +8694,7 @@
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -8711,7 +8704,7 @@
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -8721,7 +8714,7 @@
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -8731,7 +8724,7 @@
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -8741,7 +8734,7 @@
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -8751,7 +8744,7 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -8761,12 +8754,12 @@
     </row>
     <row r="92" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -8786,10 +8779,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -8797,14 +8790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -8822,7 +8815,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8837,7 +8830,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8847,7 +8840,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8857,7 +8850,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -8872,7 +8865,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8882,7 +8875,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8892,7 +8885,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -8902,12 +8895,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8915,247 +8908,247 @@
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -9165,7 +9158,7 @@
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -9175,7 +9168,7 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -9185,7 +9178,7 @@
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -9195,7 +9188,7 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -9205,7 +9198,7 @@
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -9215,7 +9208,7 @@
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -9225,7 +9218,7 @@
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -9235,12 +9228,12 @@
     </row>
     <row r="93" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -9248,9 +9241,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -9258,14 +9251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -9283,7 +9276,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9293,7 +9286,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9303,7 +9296,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9313,7 +9306,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9323,7 +9316,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9338,7 +9331,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9348,7 +9341,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9358,7 +9351,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -9368,262 +9361,262 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -9633,7 +9626,7 @@
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -9643,7 +9636,7 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -9653,7 +9646,7 @@
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -9663,7 +9656,7 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -9673,7 +9666,7 @@
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -9683,7 +9676,7 @@
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -9693,7 +9686,7 @@
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -9703,12 +9696,12 @@
     </row>
     <row r="93" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -9716,7 +9709,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -9724,15 +9717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9864,6 +9848,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9871,14 +9864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9896,6 +9881,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>

--- a/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -3531,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -6364,8 +6364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9717,6 +9717,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9848,15 +9857,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9864,6 +9864,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9881,14 +9889,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>

--- a/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10F53C-457F-4C05-BC45-95D60C8F92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -31,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="396">
   <si>
     <t>Ontology</t>
   </si>
@@ -1293,7 +1294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1792,8 +1793,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2077,14 +2078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -2587,11 +2588,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A126" r:id="rId5"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A126" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -2599,14 +2600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3057,11 +3058,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A23" r:id="rId5"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="A23" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -3069,14 +3070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -3528,14 +3529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3998,11 +3999,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -4010,14 +4011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4483,14 +4484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4954,8 +4955,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A23" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -4963,14 +4964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5433,12 +5434,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
-    <hyperlink ref="A19" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="A19" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -5446,7 +5447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5454,7 +5455,7 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -6323,52 +6324,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="H5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="G7" r:id="rId10"/>
-    <hyperlink ref="H7" r:id="rId11"/>
-    <hyperlink ref="G8" r:id="rId12"/>
-    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo"/>
-    <hyperlink ref="G10" r:id="rId14"/>
-    <hyperlink ref="H10" r:id="rId15"/>
-    <hyperlink ref="G11" r:id="rId16"/>
-    <hyperlink ref="H11" r:id="rId17"/>
-    <hyperlink ref="G12" r:id="rId18"/>
-    <hyperlink ref="H12" r:id="rId19"/>
-    <hyperlink ref="G13" r:id="rId20"/>
-    <hyperlink ref="G14" r:id="rId21"/>
-    <hyperlink ref="G15" r:id="rId22"/>
-    <hyperlink ref="H15" r:id="rId23"/>
-    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY"/>
-    <hyperlink ref="H17" r:id="rId25"/>
-    <hyperlink ref="H18" r:id="rId26"/>
-    <hyperlink ref="H19" r:id="rId27"/>
-    <hyperlink ref="G20" r:id="rId28"/>
-    <hyperlink ref="H20" r:id="rId29"/>
-    <hyperlink ref="G21" r:id="rId30"/>
-    <hyperlink ref="G19" r:id="rId31"/>
-    <hyperlink ref="G18" r:id="rId32"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G9" r:id="rId13" location=".YXq72hxCRGo" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G11" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G12" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G13" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="G21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6800,107 +6801,41 @@
       <c r="A93" s="36"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>68</v>
-      </c>
+      <c r="A104" s="15"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>71</v>
-      </c>
+      <c r="A110" s="15"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>75</v>
-      </c>
+      <c r="A115" s="15"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>77</v>
-      </c>
+      <c r="A121" s="15"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>80</v>
-      </c>
+      <c r="A123" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A123" r:id="rId5"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
@@ -7354,23 +7289,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A93"/>
+  <autoFilter ref="A1:A93" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -7818,25 +7753,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1"/>
-    <hyperlink ref="A21" r:id="rId2"/>
-    <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A23" r:id="rId4"/>
-    <hyperlink ref="A39" r:id="rId5"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A21" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A23" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A39" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
@@ -8301,22 +8236,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
-    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A23" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -8779,10 +8714,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -8790,14 +8725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -9241,9 +9176,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A17" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -9251,14 +9186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -9709,7 +9644,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -9726,6 +9661,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9857,12 +9798,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -9872,6 +9807,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9887,13 +9831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
+++ b/Master_Table/Possible_Template_TF_OntoWorldMap_2023-03-28_10-52.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ontology-Overview-of-NFDI4Cat\Master_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10F53C-457F-4C05-BC45-95D60C8F92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1AC93F-F6CE-4945-BF0D-77852B9FEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -1029,9 +1029,244 @@
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/</t>
   </si>
   <si>
+    <t>sdf; owl; obo; flat file; Oracle binary table dump; SQL table dump</t>
+  </si>
+  <si>
+    <t>Creative Commons 4.0 (CC BY 4.0)</t>
+  </si>
+  <si>
+    <t>HermiT</t>
+  </si>
+  <si>
+    <t>128730 ms</t>
+  </si>
+  <si>
+    <t>obo;chebi;xsd;rdfs;xml;rdf;owl;oboInOwl;chebi1;chebi2;chebi3;chebi4</t>
+  </si>
+  <si>
+    <t>rdfs:Label, obo:Definition (IAO_0000115)</t>
+  </si>
+  <si>
+    <t>contains plenty of substance names and short definition as string, as well as additional information on molecules like Average Mass, aligned partially to NIST,IUPAC, NC-IUBMB</t>
+  </si>
+  <si>
+    <t>EnvO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pier Luigi Buttigieg https://orcid.org/0000-0002-4366-3088;   Christopher Mungall https://orcid.org/0000-0002-6601-2165;  Suzanna Lewis https://orcid.org/0000-0002-8343-612X; Norman Morrison https://orcid.org/0000-0003-1604-1512</t>
+  </si>
+  <si>
+    <t>small group</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/environmentontology/home</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/envo.owl</t>
+  </si>
+  <si>
+    <t>https://github.com/EnvironmentOntology/envo/wiki</t>
+  </si>
+  <si>
+    <t>https://jbiomedsem.biomedcentral.com/articles/10.1186/2041-1480-4-43; https://jbiomedsem.biomedcentral.com/articles/10.1186/s13326-016-0097-6</t>
+  </si>
+  <si>
+    <t>rdf/xml; ttl; json; owl; obo</t>
+  </si>
+  <si>
+    <t>conpacted &amp; noncompacted; obo-dangling classes</t>
+  </si>
+  <si>
+    <t>Creative Commons CC0 1.0 Universal</t>
+  </si>
+  <si>
+    <t>334407 ms by HermiT; FacT++ ran into internal error after using more than 50GB of Ram</t>
+  </si>
+  <si>
+    <t>55min 51s</t>
+  </si>
+  <si>
+    <t>dc; foaf;</t>
+  </si>
+  <si>
+    <t>rdfs:Label, obo:Definition, rdfs:comment</t>
+  </si>
+  <si>
+    <t>While it  sounds like the Ontology should describe Environemnts and its relations, such as 'Lake' 'canBePoisonedBy' 'CopperSalt' or 'Windturbine' 'generates('NoisePolution' 'some' 'dB')', it is more of a "biome-ontology", descriptions of local/abstract environments end a e.g. Wastefills.</t>
+  </si>
+  <si>
+    <t>ontology for the domain of Computer Aided Process Engineering</t>
+  </si>
+  <si>
+    <t>RWTH Aachen University</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>https://www.avt.rwth-aachen.de/cms/AVT/Forschung/Sonstiges/Software/~ipts/OntoCape/?lidx=1</t>
+  </si>
+  <si>
+    <t>https://www.avt.rwth-aachen.de/global/show_document.asp?id=aaaaaaaaaatptsn</t>
+  </si>
+  <si>
+    <t>http://www.springer.com/chemistry/book/978-3-642-04654-4</t>
+  </si>
+  <si>
+    <t>non-inferred; non-compacted</t>
+  </si>
+  <si>
+    <t>GNU General Public 3</t>
+  </si>
+  <si>
+    <t>RacerPro is supposed to work, but is an deprecated reasoner</t>
+  </si>
+  <si>
+    <t>No, includes own TLO</t>
+  </si>
+  <si>
+    <t>dcterms; rdfs</t>
+  </si>
+  <si>
+    <t>label via class IRI; definition via rdfs:comment</t>
+  </si>
+  <si>
+    <t>contains/created own Top Level Ontology</t>
+  </si>
+  <si>
+    <t>Looks like not maintained anymore since 2009. Modular setup of subontologies in separate files and linkage to ontology files via C:/OntoCAPE/ as base instead of an actual URI makes it difficult to reason and to reuse.
+While it contains good ideas on process modeling (special focus on ASPEN), it does not fit to current standards (Top Level, IRIs pointing to local files, mutliple ontology module files instead of one large file containing the whole ontology...)
+Additionally, reasoning gets very complicated because of the modular setup of the sub-ontologies. [AB] was not yet able to run a reasoner (tried Fact++ and HermiT) without error. Even reasoning just the heat exchanger module produced non resolvable reasoning errors.</t>
+  </si>
+  <si>
+    <t>Ontology for Simulation, Modelling, and Optimization</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)</t>
+  </si>
+  <si>
+    <t>https://www.vimmp.eu/</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/osmo/osmo.ttl</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/vimmp-semantics/vimmp-ontologies</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/5084394</t>
+  </si>
+  <si>
+    <t>GNU Lesser General Public License (LGPL) version 3</t>
+  </si>
+  <si>
+    <t>1085049 ms by FaCT++</t>
+  </si>
+  <si>
+    <t>EMMO/VIMMP</t>
+  </si>
+  <si>
+    <t>dcterms; skos</t>
+  </si>
+  <si>
+    <t>skos:label, rdfs:comment</t>
+  </si>
+  <si>
+    <t>A sub ontology not really useable as a standalone ontology but more as a metadata framework, as such referre to the VIMMP to see its surrounding Ontology</t>
+  </si>
+  <si>
+    <t>Physico-chemical Process</t>
+  </si>
+  <si>
+    <t>https://ontobee.org/ontology/REX</t>
+  </si>
+  <si>
+    <t>185 ms by HermiT; 33 ms by FaCT++</t>
+  </si>
+  <si>
+    <t>33ms</t>
+  </si>
+  <si>
+    <t>OBO 1.0 (deprecated)</t>
+  </si>
+  <si>
+    <t>obo</t>
+  </si>
+  <si>
+    <t>rdfs:label, definition : OBO/IAO_0000115</t>
+  </si>
+  <si>
+    <t>OBO?</t>
+  </si>
+  <si>
+    <t>Deprecated ontology, that contains plenty of reaction classes, also catalytic ones, but only classifies broadly and does not contain many relations.</t>
+  </si>
+  <si>
+    <t>Tung Nguyen, Jonathan Karr, Rahuman Sheriff</t>
+  </si>
+  <si>
+    <t>Maintained by community via GitHub</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols/ontologies/sbo</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/EBI-BioModels/SBO/master/SBO_OWL.owl</t>
+  </si>
+  <si>
+    <t>https://github.com/EBI-BioModels/SBO/blob/master/SBO_OWL.owl</t>
+  </si>
+  <si>
+    <t>https://github.com/EBI-BioModels/SBO/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artistic-2.0 license </t>
+  </si>
+  <si>
+    <t>48 ms by HermiT; 11 ms by FaCT++</t>
+  </si>
+  <si>
+    <t>11 ms</t>
+  </si>
+  <si>
+    <t>daml; mathml</t>
+  </si>
+  <si>
+    <t>rdfs:label, rdfs:comment</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary for Systems Biology and computational modeling in Systems Biology.</t>
+  </si>
+  <si>
+    <t>Virtual Materials Marketplace Ontology</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/combined/combined-vimmp-ontologies.ttl</t>
+  </si>
+  <si>
+    <t>combined and inferred</t>
+  </si>
+  <si>
+    <t>Inconsistencies in HermiT and FacT++ in at least a depth 3 inconsistencie "layers" (meaning major totally separeted logic areas)</t>
+  </si>
+  <si>
+    <t>EMMO 1-0-0.beta1</t>
+  </si>
+  <si>
+    <t>all vimmp ontologies and most EMMO subset ontologies</t>
+  </si>
+  <si>
+    <t>rdfs:label, qudt:description, skos:prefLabel as Dataproperty?</t>
+  </si>
+  <si>
+    <t>Ontology with is developed to combine several marketplaces, such as Material handling/transport/aso as well as simulations/compotations/aso. As it is not well defined/annotated and lacks a good documentation for how to add data, it is quiet complicated to make use of it outside of the propriatarilly developed tools. Reasonning erorrs and the termination of further development/alignment to the EMMO make it nearly unuseable accept as a organ donor. As such the Ontology has a lot of good concepts and is well developed.</t>
+  </si>
+  <si>
+    <t>Optional links (Papers, Additional GitHub Repo,...)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Hastings J, Owen G, Dekker A, Ennis M, Kale N, Muthukrishnan V, Turner S, Swainston N, Mendes P, Steinbeck C. (2016). ChEBI in 2016: Improved services and an expanding collection of metabolites. Nucleic Acids Res.
-</t>
+      <t xml:space="preserve">Hastings J, Owen G, Dekker A, Ennis M, Kale N, Muthukrishnan V, Turner S, Swainston N, Mendes P, Steinbeck C. (2016). ChEBI in 2016: Improved services and an expanding collection of metabolites. Nucleic Acids Res. </t>
     </r>
     <r>
       <rPr>
@@ -1053,242 +1288,6 @@
       </rPr>
       <t>https://www.ebi.ac.uk/chebi/downloadsForward.do</t>
     </r>
-  </si>
-  <si>
-    <t>sdf; owl; obo; flat file; Oracle binary table dump; SQL table dump</t>
-  </si>
-  <si>
-    <t>Creative Commons 4.0 (CC BY 4.0)</t>
-  </si>
-  <si>
-    <t>HermiT</t>
-  </si>
-  <si>
-    <t>128730 ms</t>
-  </si>
-  <si>
-    <t>obo;chebi;xsd;rdfs;xml;rdf;owl;oboInOwl;chebi1;chebi2;chebi3;chebi4</t>
-  </si>
-  <si>
-    <t>rdfs:Label, obo:Definition (IAO_0000115)</t>
-  </si>
-  <si>
-    <t>contains plenty of substance names and short definition as string, as well as additional information on molecules like Average Mass, aligned partially to NIST,IUPAC, NC-IUBMB</t>
-  </si>
-  <si>
-    <t>EnvO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pier Luigi Buttigieg https://orcid.org/0000-0002-4366-3088;   Christopher Mungall https://orcid.org/0000-0002-6601-2165;  Suzanna Lewis https://orcid.org/0000-0002-8343-612X; Norman Morrison https://orcid.org/0000-0003-1604-1512</t>
-  </si>
-  <si>
-    <t>small group</t>
-  </si>
-  <si>
-    <t>https://sites.google.com/site/environmentontology/home</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/envo.owl</t>
-  </si>
-  <si>
-    <t>https://github.com/EnvironmentOntology/envo/wiki</t>
-  </si>
-  <si>
-    <t>https://jbiomedsem.biomedcentral.com/articles/10.1186/2041-1480-4-43; https://jbiomedsem.biomedcentral.com/articles/10.1186/s13326-016-0097-6</t>
-  </si>
-  <si>
-    <t>rdf/xml; ttl; json; owl; obo</t>
-  </si>
-  <si>
-    <t>conpacted &amp; noncompacted; obo-dangling classes</t>
-  </si>
-  <si>
-    <t>Creative Commons CC0 1.0 Universal</t>
-  </si>
-  <si>
-    <t>334407 ms by HermiT; FacT++ ran into internal error after using more than 50GB of Ram</t>
-  </si>
-  <si>
-    <t>55min 51s</t>
-  </si>
-  <si>
-    <t>dc; foaf;</t>
-  </si>
-  <si>
-    <t>rdfs:Label, obo:Definition, rdfs:comment</t>
-  </si>
-  <si>
-    <t>While it  sounds like the Ontology should describe Environemnts and its relations, such as 'Lake' 'canBePoisonedBy' 'CopperSalt' or 'Windturbine' 'generates('NoisePolution' 'some' 'dB')', it is more of a "biome-ontology", descriptions of local/abstract environments end a e.g. Wastefills.</t>
-  </si>
-  <si>
-    <t>ontology for the domain of Computer Aided Process Engineering</t>
-  </si>
-  <si>
-    <t>RWTH Aachen University</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>https://www.avt.rwth-aachen.de/cms/AVT/Forschung/Sonstiges/Software/~ipts/OntoCape/?lidx=1</t>
-  </si>
-  <si>
-    <t>https://www.avt.rwth-aachen.de/global/show_document.asp?id=aaaaaaaaaatptsn</t>
-  </si>
-  <si>
-    <t>http://www.springer.com/chemistry/book/978-3-642-04654-4</t>
-  </si>
-  <si>
-    <t>non-inferred; non-compacted</t>
-  </si>
-  <si>
-    <t>GNU General Public 3</t>
-  </si>
-  <si>
-    <t>RacerPro is supposed to work, but is an deprecated reasoner</t>
-  </si>
-  <si>
-    <t>No, includes own TLO</t>
-  </si>
-  <si>
-    <t>dcterms; rdfs</t>
-  </si>
-  <si>
-    <t>label via class IRI; definition via rdfs:comment</t>
-  </si>
-  <si>
-    <t>contains/created own Top Level Ontology</t>
-  </si>
-  <si>
-    <t>Looks like not maintained anymore since 2009. Modular setup of subontologies in separate files and linkage to ontology files via C:/OntoCAPE/ as base instead of an actual URI makes it difficult to reason and to reuse.
-While it contains good ideas on process modeling (special focus on ASPEN), it does not fit to current standards (Top Level, IRIs pointing to local files, mutliple ontology module files instead of one large file containing the whole ontology...)
-Additionally, reasoning gets very complicated because of the modular setup of the sub-ontologies. [AB] was not yet able to run a reasoner (tried Fact++ and HermiT) without error. Even reasoning just the heat exchanger module produced non resolvable reasoning errors.</t>
-  </si>
-  <si>
-    <t>Ontology for Simulation, Modelling, and Optimization</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)</t>
-  </si>
-  <si>
-    <t>https://www.vimmp.eu/</t>
-  </si>
-  <si>
-    <t>https://purl.vimmp.eu/semantics/osmo/osmo.ttl</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/vimmp-semantics/vimmp-ontologies</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/record/5084394</t>
-  </si>
-  <si>
-    <t>GNU Lesser General Public License (LGPL) version 3</t>
-  </si>
-  <si>
-    <t>1085049 ms by FaCT++</t>
-  </si>
-  <si>
-    <t>EMMO/VIMMP</t>
-  </si>
-  <si>
-    <t>dcterms; skos</t>
-  </si>
-  <si>
-    <t>skos:label, rdfs:comment</t>
-  </si>
-  <si>
-    <t>A sub ontology not really useable as a standalone ontology but more as a metadata framework, as such referre to the VIMMP to see its surrounding Ontology</t>
-  </si>
-  <si>
-    <t>Physico-chemical Process</t>
-  </si>
-  <si>
-    <t>https://ontobee.org/ontology/REX</t>
-  </si>
-  <si>
-    <t>185 ms by HermiT; 33 ms by FaCT++</t>
-  </si>
-  <si>
-    <t>33ms</t>
-  </si>
-  <si>
-    <t>OBO 1.0 (deprecated)</t>
-  </si>
-  <si>
-    <t>obo</t>
-  </si>
-  <si>
-    <t>rdfs:label, definition : OBO/IAO_0000115</t>
-  </si>
-  <si>
-    <t>OBO?</t>
-  </si>
-  <si>
-    <t>Deprecated ontology, that contains plenty of reaction classes, also catalytic ones, but only classifies broadly and does not contain many relations.</t>
-  </si>
-  <si>
-    <t>Tung Nguyen, Jonathan Karr, Rahuman Sheriff</t>
-  </si>
-  <si>
-    <t>Maintained by community via GitHub</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ols/ontologies/sbo</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/EBI-BioModels/SBO/master/SBO_OWL.owl</t>
-  </si>
-  <si>
-    <t>https://github.com/EBI-BioModels/SBO/blob/master/SBO_OWL.owl</t>
-  </si>
-  <si>
-    <t>https://github.com/EBI-BioModels/SBO/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artistic-2.0 license </t>
-  </si>
-  <si>
-    <t>48 ms by HermiT; 11 ms by FaCT++</t>
-  </si>
-  <si>
-    <t>11 ms</t>
-  </si>
-  <si>
-    <t>daml; mathml</t>
-  </si>
-  <si>
-    <t>rdfs:label, rdfs:comment</t>
-  </si>
-  <si>
-    <t>Controlled vocabulary for Systems Biology and computational modeling in Systems Biology.</t>
-  </si>
-  <si>
-    <t>Virtual Materials Marketplace Ontology</t>
-  </si>
-  <si>
-    <t>https://purl.vimmp.eu/semantics/combined/combined-vimmp-ontologies.ttl</t>
-  </si>
-  <si>
-    <t>combined and inferred</t>
-  </si>
-  <si>
-    <t>Inconsistencies in HermiT and FacT++ in at least a depth 3 inconsistencie "layers" (meaning major totally separeted logic areas)</t>
-  </si>
-  <si>
-    <t>EMMO 1-0-0.beta1</t>
-  </si>
-  <si>
-    <t>all vimmp ontologies and most EMMO subset ontologies</t>
-  </si>
-  <si>
-    <t>rdfs:label, qudt:description, skos:prefLabel as Dataproperty?</t>
-  </si>
-  <si>
-    <t>Ontology with is developed to combine several marketplaces, such as Material handling/transport/aso as well as simulations/compotations/aso. As it is not well defined/annotated and lacks a good documentation for how to add data, it is quiet complicated to make use of it outside of the propriatarilly developed tools. Reasonning erorrs and the termination of further development/alignment to the EMMO make it nearly unuseable accept as a organ donor. As such the Ontology has a lot of good concepts and is well developed.</t>
-  </si>
-  <si>
-    <t>Optional links (Papers, Additional GitHub Repo,...)</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2192,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2645,7 +2644,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2655,7 +2654,7 @@
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2665,7 +2664,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2680,7 +2679,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2690,7 +2689,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2700,7 +2699,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -2710,17 +2709,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2735,7 +2734,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -2745,7 +2744,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -2755,7 +2754,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -2765,7 +2764,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -2775,7 +2774,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2805,7 +2804,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2815,7 +2814,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3050,7 +3049,7 @@
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -3105,7 +3104,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3124,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3135,7 +3134,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3150,7 +3149,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,7 +3159,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,12 +3184,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3215,7 +3214,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,7 +3224,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3235,7 +3234,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,7 +3254,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,7 +3274,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3285,7 +3284,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3420,7 +3419,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,7 +3519,7 @@
     </row>
     <row r="93" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3553,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3584,7 +3583,7 @@
     </row>
     <row r="9" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3609,7 +3608,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3619,7 +3618,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3639,17 +3638,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3684,7 +3683,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3694,7 +3693,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -3714,7 +3713,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -3734,7 +3733,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -3744,7 +3743,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3979,7 +3978,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4046,7 +4045,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4119,12 +4118,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -4174,7 +4173,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4184,7 +4183,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4194,7 +4193,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4214,7 +4213,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4224,7 +4223,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4359,7 +4358,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4459,7 +4458,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4539,7 +4538,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4549,7 +4548,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4564,7 +4563,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4574,7 +4573,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4595,17 +4594,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4640,7 +4639,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,7 +4649,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4660,7 +4659,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4690,7 +4689,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -4700,7 +4699,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4935,7 +4934,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4989,7 +4988,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5044,7 +5043,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5054,7 +5053,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5074,12 +5073,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -5109,7 +5108,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -5119,7 +5118,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -5129,7 +5128,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -5149,7 +5148,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -5159,7 +5158,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -5169,7 +5168,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -5179,7 +5178,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -5414,7 +5413,7 @@
     </row>
     <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -6478,7 +6477,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -6940,7 +6939,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -7413,7 +7412,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7881,7 +7880,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8359,7 +8358,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -8835,7 +8834,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -9189,8 +9188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9301,12 +9300,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9321,7 +9320,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -9341,7 +9340,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -9351,7 +9350,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -9361,7 +9360,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -9391,7 +9390,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -9401,7 +9400,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9636,7 +9635,7 @@
     </row>
     <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -9661,12 +9660,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -9798,6 +9791,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -9807,15 +9806,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9831,4 +9821,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>